--- a/www/IndicatorsPerCountry/Colombia_CopperProduction_TerritorialRef_1946_2012_CCode_170.xlsx
+++ b/www/IndicatorsPerCountry/Colombia_CopperProduction_TerritorialRef_1946_2012_CCode_170.xlsx
@@ -75,13 +75,13 @@
     <t>Klein Goldewijk, Kees and Jonathan Fink-Jensen (2015). Copper Production. http://hdl.handle.net/10622/GI7D06, accessed via the Clio Infra website.</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.xml</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.xml</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.ris</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.ris</t>
   </si>
   <si>
-    <t>https://www.clio-infra.eu/citations/DOI-10622_GI7D06.bib</t>
+    <t>https://www.clio-infra.eu/Citations/DOI-10622_GI7D06.bib</t>
   </si>
 </sst>
 </file>

--- a/www/IndicatorsPerCountry/Colombia_CopperProduction_TerritorialRef_1946_2012_CCode_170.xlsx
+++ b/www/IndicatorsPerCountry/Colombia_CopperProduction_TerritorialRef_1946_2012_CCode_170.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="40">
   <si>
     <t>Country Code</t>
   </si>
@@ -39,13 +39,64 @@
     <t>0</t>
   </si>
   <si>
-    <t>0.4</t>
+    <t>3.64</t>
   </si>
   <si>
-    <t>0.2</t>
+    <t>3.94</t>
   </si>
   <si>
-    <t>0.1</t>
+    <t>4</t>
+  </si>
+  <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
+    <t>2.222</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>1.4</t>
+  </si>
+  <si>
+    <t>2.295</t>
+  </si>
+  <si>
+    <t>2.062</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>1.578</t>
+  </si>
+  <si>
+    <t>1.701</t>
+  </si>
+  <si>
+    <t>1.259</t>
+  </si>
+  <si>
+    <t>0.6</t>
+  </si>
+  <si>
+    <t>0.7</t>
+  </si>
+  <si>
+    <t>1.31</t>
+  </si>
+  <si>
+    <t>1.42</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>0.781</t>
   </si>
   <si>
     <t>Description</t>
@@ -4396,7 +4447,7 @@
         <v>1977.0</v>
       </c>
       <c r="E251" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
     <row r="252">
@@ -4413,7 +4464,7 @@
         <v>1978.0</v>
       </c>
       <c r="E252" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="253">
@@ -4430,7 +4481,7 @@
         <v>1979.0</v>
       </c>
       <c r="E253" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="254">
@@ -4447,7 +4498,7 @@
         <v>1980.0</v>
       </c>
       <c r="E254" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="255">
@@ -4464,7 +4515,7 @@
         <v>1981.0</v>
       </c>
       <c r="E255" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="256">
@@ -4481,7 +4532,7 @@
         <v>1982.0</v>
       </c>
       <c r="E256" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="257">
@@ -4498,7 +4549,7 @@
         <v>1983.0</v>
       </c>
       <c r="E257" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="258">
@@ -4515,7 +4566,7 @@
         <v>1984.0</v>
       </c>
       <c r="E258" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="259">
@@ -4532,7 +4583,7 @@
         <v>1985.0</v>
       </c>
       <c r="E259" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
     </row>
     <row r="260">
@@ -4549,7 +4600,7 @@
         <v>1986.0</v>
       </c>
       <c r="E260" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="261">
@@ -4566,7 +4617,7 @@
         <v>1987.0</v>
       </c>
       <c r="E261" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="262">
@@ -4634,7 +4685,7 @@
         <v>1991.0</v>
       </c>
       <c r="E265" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
     </row>
     <row r="266">
@@ -4651,7 +4702,7 @@
         <v>1992.0</v>
       </c>
       <c r="E266" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
     </row>
     <row r="267">
@@ -4668,7 +4719,7 @@
         <v>1993.0</v>
       </c>
       <c r="E267" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
     </row>
     <row r="268">
@@ -4685,7 +4736,7 @@
         <v>1994.0</v>
       </c>
       <c r="E268" t="s">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="269">
@@ -4702,7 +4753,7 @@
         <v>1995.0</v>
       </c>
       <c r="E269" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
     </row>
     <row r="270">
@@ -4719,7 +4770,7 @@
         <v>1996.0</v>
       </c>
       <c r="E270" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
     </row>
     <row r="271">
@@ -4736,7 +4787,7 @@
         <v>1997.0</v>
       </c>
       <c r="E271" t="s">
-        <v>7</v>
+        <v>14</v>
       </c>
     </row>
     <row r="272">
@@ -4753,7 +4804,7 @@
         <v>1998.0</v>
       </c>
       <c r="E272" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
     </row>
     <row r="273">
@@ -4770,7 +4821,7 @@
         <v>1999.0</v>
       </c>
       <c r="E273" t="s">
-        <v>7</v>
+        <v>16</v>
       </c>
     </row>
     <row r="274">
@@ -4787,7 +4838,7 @@
         <v>2000.0</v>
       </c>
       <c r="E274" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
     </row>
     <row r="275">
@@ -4804,7 +4855,7 @@
         <v>2001.0</v>
       </c>
       <c r="E275" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="276">
@@ -4821,7 +4872,7 @@
         <v>2002.0</v>
       </c>
       <c r="E276" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
     </row>
     <row r="277">
@@ -4838,7 +4889,7 @@
         <v>2003.0</v>
       </c>
       <c r="E277" t="s">
-        <v>7</v>
+        <v>19</v>
       </c>
     </row>
     <row r="278">
@@ -4855,7 +4906,7 @@
         <v>2004.0</v>
       </c>
       <c r="E278" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
     </row>
     <row r="279">
@@ -4872,7 +4923,7 @@
         <v>2005.0</v>
       </c>
       <c r="E279" t="s">
-        <v>7</v>
+        <v>21</v>
       </c>
     </row>
     <row r="280">
@@ -4889,7 +4940,7 @@
         <v>2006.0</v>
       </c>
       <c r="E280" t="s">
-        <v>7</v>
+        <v>22</v>
       </c>
     </row>
     <row r="281">
@@ -4906,7 +4957,7 @@
         <v>2007.0</v>
       </c>
       <c r="E281" t="s">
-        <v>7</v>
+        <v>23</v>
       </c>
     </row>
     <row r="282">
@@ -4923,7 +4974,7 @@
         <v>2008.0</v>
       </c>
       <c r="E282" t="s">
-        <v>7</v>
+        <v>24</v>
       </c>
     </row>
     <row r="283">
@@ -4940,7 +4991,7 @@
         <v>2009.0</v>
       </c>
       <c r="E283" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
     </row>
     <row r="284">
@@ -4957,7 +5008,7 @@
         <v>2010.0</v>
       </c>
       <c r="E284" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="285">
@@ -4974,7 +5025,7 @@
         <v>2011.0</v>
       </c>
       <c r="E285" t="s">
-        <v>7</v>
+        <v>26</v>
       </c>
     </row>
     <row r="286">
@@ -4991,7 +5042,7 @@
         <v>2012.0</v>
       </c>
       <c r="E286" t="s">
-        <v>7</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -5009,50 +5060,50 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="B1" t="s">
-        <v>12</v>
+        <v>29</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>13</v>
+        <v>30</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>14</v>
+        <v>31</v>
       </c>
       <c r="B3" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>20</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>16</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>22</v>
+        <v>39</v>
       </c>
     </row>
   </sheetData>
